--- a/INTLINE/data/158/MOF/TRADE/COUN/North America.xlsx
+++ b/INTLINE/data/158/MOF/TRADE/COUN/North America.xlsx
@@ -4580,7 +4580,7 @@
         <v>1358611882</v>
       </c>
       <c r="TA2" t="n">
-        <v>0</v>
+        <v>1642965021</v>
       </c>
       <c r="TB2" t="n">
         <v>0</v>
@@ -6173,10 +6173,10 @@
         <v>911214193</v>
       </c>
       <c r="SZ3" t="n">
-        <v>1012498864</v>
+        <v>1013275746</v>
       </c>
       <c r="TA3" t="n">
-        <v>0</v>
+        <v>1103570359</v>
       </c>
       <c r="TB3" t="n">
         <v>0</v>
@@ -9368,7 +9368,7 @@
         <v>658518</v>
       </c>
       <c r="TA5" t="n">
-        <v>0</v>
+        <v>815828</v>
       </c>
       <c r="TB5" t="n">
         <v>0</v>
@@ -10964,7 +10964,7 @@
         <v>91094315</v>
       </c>
       <c r="TA6" t="n">
-        <v>0</v>
+        <v>108339216</v>
       </c>
       <c r="TB6" t="n">
         <v>0</v>
@@ -12557,10 +12557,10 @@
         <v>127932494</v>
       </c>
       <c r="SZ7" t="n">
-        <v>147064869</v>
+        <v>147069509</v>
       </c>
       <c r="TA7" t="n">
-        <v>0</v>
+        <v>160295803</v>
       </c>
       <c r="TB7" t="n">
         <v>0</v>
@@ -17348,7 +17348,7 @@
         <v>1267517567</v>
       </c>
       <c r="TA10" t="n">
-        <v>0</v>
+        <v>1534625805</v>
       </c>
       <c r="TB10" t="n">
         <v>0</v>
@@ -18941,10 +18941,10 @@
         <v>782501334</v>
       </c>
       <c r="SZ11" t="n">
-        <v>864775477</v>
+        <v>865547719</v>
       </c>
       <c r="TA11" t="n">
-        <v>0</v>
+        <v>942458728</v>
       </c>
       <c r="TB11" t="n">
         <v>0</v>
